--- a/RAW_PUBLIC/FebruarySales2024_public.xlsx
+++ b/RAW_PUBLIC/FebruarySales2024_public.xlsx
@@ -523,7 +523,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ORD_0000001</t>
+          <t>ORD_0005210</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ORD_0000001</t>
+          <t>ORD_0005210</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -661,7 +661,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ORD_0000002</t>
+          <t>ORD_0005211</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -730,7 +730,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ORD_0000002</t>
+          <t>ORD_0005211</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -799,7 +799,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ORD_0000003</t>
+          <t>ORD_0005212</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ORD_0000004</t>
+          <t>ORD_0005213</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -937,7 +937,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ORD_0000004</t>
+          <t>ORD_0005213</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1006,7 +1006,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ORD_0000005</t>
+          <t>ORD_0005214</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1075,7 +1075,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORD_0000006</t>
+          <t>ORD_0005215</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1148,7 +1148,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ORD_0000007</t>
+          <t>ORD_0005216</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1217,7 +1217,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ORD_0000007</t>
+          <t>ORD_0005216</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1286,7 +1286,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ORD_0000007</t>
+          <t>ORD_0005216</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1355,7 +1355,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ORD_0000008</t>
+          <t>ORD_0005217</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1428,7 +1428,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ORD_0000009</t>
+          <t>ORD_0005218</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1501,7 +1501,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ORD_0000010</t>
+          <t>ORD_0005219</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1570,7 +1570,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ORD_0000011</t>
+          <t>ORD_0005220</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1643,7 +1643,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ORD_0000012</t>
+          <t>ORD_0005221</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1712,7 +1712,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ORD_0000013</t>
+          <t>ORD_0005222</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1781,7 +1781,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ORD_0000013</t>
+          <t>ORD_0005222</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1850,7 +1850,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ORD_0000014</t>
+          <t>ORD_0005223</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1919,7 +1919,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ORD_0000015</t>
+          <t>ORD_0005224</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1988,7 +1988,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ORD_0000016</t>
+          <t>ORD_0005225</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2057,7 +2057,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ORD_0000017</t>
+          <t>ORD_0005226</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2126,7 +2126,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ORD_0000017</t>
+          <t>ORD_0005226</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2195,7 +2195,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ORD_0000018</t>
+          <t>ORD_0005227</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2264,7 +2264,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ORD_0000019</t>
+          <t>ORD_0005228</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2333,7 +2333,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ORD_0000020</t>
+          <t>ORD_0005229</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2402,7 +2402,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ORD_0000020</t>
+          <t>ORD_0005229</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2471,7 +2471,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ORD_0000021</t>
+          <t>ORD_0005230</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2540,7 +2540,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ORD_0000022</t>
+          <t>ORD_0005231</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2609,7 +2609,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ORD_0000023</t>
+          <t>ORD_0005232</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2678,7 +2678,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ORD_0000024</t>
+          <t>ORD_0005233</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2747,7 +2747,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ORD_0000025</t>
+          <t>ORD_0005234</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2816,7 +2816,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ORD_0000026</t>
+          <t>ORD_0005235</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2885,7 +2885,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ORD_0000027</t>
+          <t>ORD_0005236</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2954,7 +2954,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ORD_0000027</t>
+          <t>ORD_0005236</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3023,7 +3023,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ORD_0000028</t>
+          <t>ORD_0005237</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3096,7 +3096,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ORD_0000029</t>
+          <t>ORD_0005238</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3165,7 +3165,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ORD_0000030</t>
+          <t>ORD_0005239</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3234,7 +3234,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ORD_0000031</t>
+          <t>ORD_0005240</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3303,7 +3303,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ORD_0000032</t>
+          <t>ORD_0005241</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3372,7 +3372,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ORD_0000033</t>
+          <t>ORD_0005242</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3445,7 +3445,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ORD_0000034</t>
+          <t>ORD_0005243</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3514,7 +3514,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ORD_0000035</t>
+          <t>ORD_0005244</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3583,7 +3583,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ORD_0000036</t>
+          <t>ORD_0005245</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3652,7 +3652,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ORD_0000037</t>
+          <t>ORD_0005246</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3721,7 +3721,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ORD_0000038</t>
+          <t>ORD_0005247</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3790,7 +3790,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ORD_0000038</t>
+          <t>ORD_0005247</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3859,7 +3859,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ORD_0000039</t>
+          <t>ORD_0005248</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3928,7 +3928,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ORD_0000040</t>
+          <t>ORD_0005249</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3997,7 +3997,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ORD_0000041</t>
+          <t>ORD_0005250</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4066,7 +4066,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ORD_0000042</t>
+          <t>ORD_0005251</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4135,7 +4135,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ORD_0000043</t>
+          <t>ORD_0005252</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4204,7 +4204,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ORD_0000043</t>
+          <t>ORD_0005252</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4273,7 +4273,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ORD_0000044</t>
+          <t>ORD_0005253</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4342,7 +4342,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ORD_0000045</t>
+          <t>ORD_0005254</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4411,7 +4411,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ORD_0000046</t>
+          <t>ORD_0005255</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4480,7 +4480,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ORD_0000047</t>
+          <t>ORD_0005256</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4549,7 +4549,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ORD_0000048</t>
+          <t>ORD_0005257</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4622,7 +4622,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ORD_0000048</t>
+          <t>ORD_0005257</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4695,7 +4695,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ORD_0000048</t>
+          <t>ORD_0005257</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4768,7 +4768,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ORD_0000049</t>
+          <t>ORD_0005258</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4837,7 +4837,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ORD_0000050</t>
+          <t>ORD_0005259</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4910,7 +4910,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ORD_0000051</t>
+          <t>ORD_0005260</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4979,7 +4979,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ORD_0000052</t>
+          <t>ORD_0005261</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5048,7 +5048,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ORD_0000053</t>
+          <t>ORD_0005262</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5117,7 +5117,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ORD_0000054</t>
+          <t>ORD_0005263</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5186,7 +5186,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ORD_0000054</t>
+          <t>ORD_0005263</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5255,7 +5255,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ORD_0000055</t>
+          <t>ORD_0005264</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5324,7 +5324,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ORD_0000056</t>
+          <t>ORD_0005265</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5393,7 +5393,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ORD_0000056</t>
+          <t>ORD_0005265</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5462,7 +5462,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ORD_0000057</t>
+          <t>ORD_0005266</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5531,7 +5531,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ORD_0000058</t>
+          <t>ORD_0005267</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5600,7 +5600,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ORD_0000059</t>
+          <t>ORD_0005268</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5669,7 +5669,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ORD_0000060</t>
+          <t>ORD_0005269</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5738,7 +5738,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ORD_0000061</t>
+          <t>ORD_0005270</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5807,7 +5807,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ORD_0000062</t>
+          <t>ORD_0005271</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5876,7 +5876,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ORD_0000063</t>
+          <t>ORD_0005272</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5945,7 +5945,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ORD_0000064</t>
+          <t>ORD_0005273</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -6014,7 +6014,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ORD_0000064</t>
+          <t>ORD_0005273</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -6083,7 +6083,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ORD_0000065</t>
+          <t>ORD_0005274</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -6152,7 +6152,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ORD_0000065</t>
+          <t>ORD_0005274</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -6221,7 +6221,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ORD_0000066</t>
+          <t>ORD_0005275</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6290,7 +6290,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ORD_0000067</t>
+          <t>ORD_0005276</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -6363,7 +6363,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ORD_0000068</t>
+          <t>ORD_0005277</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -6432,7 +6432,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ORD_0000069</t>
+          <t>ORD_0005278</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -6501,7 +6501,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ORD_0000070</t>
+          <t>ORD_0005279</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -6570,7 +6570,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ORD_0000070</t>
+          <t>ORD_0005279</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -6639,7 +6639,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ORD_0000071</t>
+          <t>ORD_0005280</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -6708,7 +6708,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ORD_0000071</t>
+          <t>ORD_0005280</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6777,7 +6777,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ORD_0000071</t>
+          <t>ORD_0005280</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -6846,7 +6846,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ORD_0000071</t>
+          <t>ORD_0005280</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -6915,7 +6915,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ORD_0000072</t>
+          <t>ORD_0005281</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -6984,7 +6984,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ORD_0000072</t>
+          <t>ORD_0005281</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -7053,7 +7053,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ORD_0000072</t>
+          <t>ORD_0005281</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -7122,7 +7122,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ORD_0000072</t>
+          <t>ORD_0005281</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -7191,7 +7191,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ORD_0000072</t>
+          <t>ORD_0005281</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -7260,7 +7260,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ORD_0000073</t>
+          <t>ORD_0005282</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -7329,7 +7329,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ORD_0000074</t>
+          <t>ORD_0005283</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -7398,7 +7398,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ORD_0000075</t>
+          <t>ORD_0005284</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -7467,7 +7467,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ORD_0000076</t>
+          <t>ORD_0005285</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -7536,7 +7536,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ORD_0000077</t>
+          <t>ORD_0005286</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -7605,7 +7605,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ORD_0000078</t>
+          <t>ORD_0005287</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -7674,7 +7674,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ORD_0000079</t>
+          <t>ORD_0005288</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -7743,7 +7743,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ORD_0000080</t>
+          <t>ORD_0005289</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -7812,7 +7812,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ORD_0000080</t>
+          <t>ORD_0005289</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -7881,7 +7881,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ORD_0000081</t>
+          <t>ORD_0005290</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -7950,7 +7950,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ORD_0000082</t>
+          <t>ORD_0005291</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -8019,7 +8019,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ORD_0000083</t>
+          <t>ORD_0005292</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -8092,7 +8092,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ORD_0000084</t>
+          <t>ORD_0005293</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -8161,7 +8161,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ORD_0000084</t>
+          <t>ORD_0005293</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -8230,7 +8230,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ORD_0000084</t>
+          <t>ORD_0005293</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -8299,7 +8299,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ORD_0000084</t>
+          <t>ORD_0005293</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -8368,7 +8368,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ORD_0000085</t>
+          <t>ORD_0005294</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -8437,7 +8437,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ORD_0000085</t>
+          <t>ORD_0005294</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -8506,7 +8506,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ORD_0000085</t>
+          <t>ORD_0005294</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -8575,7 +8575,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ORD_0000086</t>
+          <t>ORD_0005295</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -8644,7 +8644,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ORD_0000087</t>
+          <t>ORD_0005296</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -8713,7 +8713,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ORD_0000087</t>
+          <t>ORD_0005296</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -8782,7 +8782,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ORD_0000088</t>
+          <t>ORD_0005297</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -8851,7 +8851,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ORD_0000089</t>
+          <t>ORD_0005298</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -8920,7 +8920,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ORD_0000090</t>
+          <t>ORD_0005299</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -8989,7 +8989,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ORD_0000091</t>
+          <t>ORD_0005300</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -9058,7 +9058,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ORD_0000092</t>
+          <t>ORD_0005301</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -9127,7 +9127,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ORD_0000093</t>
+          <t>ORD_0005302</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -9196,7 +9196,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ORD_0000093</t>
+          <t>ORD_0005302</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -9265,7 +9265,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ORD_0000094</t>
+          <t>ORD_0005303</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -9334,7 +9334,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ORD_0000095</t>
+          <t>ORD_0005304</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -9403,7 +9403,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ORD_0000096</t>
+          <t>ORD_0005305</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -9472,7 +9472,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ORD_0000097</t>
+          <t>ORD_0005306</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -9545,7 +9545,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ORD_0000098</t>
+          <t>ORD_0005307</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -9614,7 +9614,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ORD_0000099</t>
+          <t>ORD_0005308</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -9687,7 +9687,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ORD_0000100</t>
+          <t>ORD_0005309</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -9756,7 +9756,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ORD_0000101</t>
+          <t>ORD_0005310</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -9825,7 +9825,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ORD_0000102</t>
+          <t>ORD_0005311</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -9894,7 +9894,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ORD_0000102</t>
+          <t>ORD_0005311</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -9963,7 +9963,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ORD_0000103</t>
+          <t>ORD_0005312</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -10032,7 +10032,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ORD_0000103</t>
+          <t>ORD_0005312</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -10101,7 +10101,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ORD_0000103</t>
+          <t>ORD_0005312</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -10170,7 +10170,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ORD_0000104</t>
+          <t>ORD_0005313</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -10243,7 +10243,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ORD_0000105</t>
+          <t>ORD_0005314</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -10312,7 +10312,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ORD_0000106</t>
+          <t>ORD_0005315</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -10381,7 +10381,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ORD_0000107</t>
+          <t>ORD_0005316</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -10450,7 +10450,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ORD_0000108</t>
+          <t>ORD_0005317</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -10521,7 +10521,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ORD_0000108</t>
+          <t>ORD_0005317</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -10592,7 +10592,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ORD_0000108</t>
+          <t>ORD_0005317</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -10663,7 +10663,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ORD_0000108</t>
+          <t>ORD_0005317</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -10734,7 +10734,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ORD_0000109</t>
+          <t>ORD_0005318</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -10805,7 +10805,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ORD_0000110</t>
+          <t>ORD_0005319</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -10876,7 +10876,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ORD_0000111</t>
+          <t>ORD_0005320</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -10947,7 +10947,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ORD_0000112</t>
+          <t>ORD_0005321</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -11022,7 +11022,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ORD_0000113</t>
+          <t>ORD_0005322</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -11093,7 +11093,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ORD_0000114</t>
+          <t>ORD_0005323</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -11164,7 +11164,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ORD_0000114</t>
+          <t>ORD_0005323</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -11235,7 +11235,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ORD_0000115</t>
+          <t>ORD_0005324</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -11310,7 +11310,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ORD_0000116</t>
+          <t>ORD_0005325</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -11381,7 +11381,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ORD_0000117</t>
+          <t>ORD_0005326</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -11452,7 +11452,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ORD_0000118</t>
+          <t>ORD_0005327</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -11523,7 +11523,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ORD_0000119</t>
+          <t>ORD_0005328</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -11594,7 +11594,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ORD_0000120</t>
+          <t>ORD_0005329</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -11665,7 +11665,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ORD_0000121</t>
+          <t>ORD_0005330</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -11736,7 +11736,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ORD_0000122</t>
+          <t>ORD_0005331</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -11807,7 +11807,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ORD_0000122</t>
+          <t>ORD_0005331</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -11878,7 +11878,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ORD_0000122</t>
+          <t>ORD_0005331</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -11949,7 +11949,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ORD_0000122</t>
+          <t>ORD_0005331</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -12020,7 +12020,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ORD_0000123</t>
+          <t>ORD_0005332</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -12091,7 +12091,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ORD_0000124</t>
+          <t>ORD_0005333</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -12162,7 +12162,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ORD_0000125</t>
+          <t>ORD_0005334</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -12233,7 +12233,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ORD_0000126</t>
+          <t>ORD_0005335</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -12308,7 +12308,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ORD_0000127</t>
+          <t>ORD_0005336</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -12383,7 +12383,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ORD_0000128</t>
+          <t>ORD_0005337</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -12454,7 +12454,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ORD_0000129</t>
+          <t>ORD_0005338</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -12529,7 +12529,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ORD_0000129</t>
+          <t>ORD_0005338</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -12604,7 +12604,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ORD_0000129</t>
+          <t>ORD_0005338</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -12679,7 +12679,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ORD_0000130</t>
+          <t>ORD_0005339</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -12750,7 +12750,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ORD_0000130</t>
+          <t>ORD_0005339</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -12821,7 +12821,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ORD_0000130</t>
+          <t>ORD_0005339</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -12892,7 +12892,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ORD_0000131</t>
+          <t>ORD_0005340</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -12963,7 +12963,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ORD_0000132</t>
+          <t>ORD_0005341</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -13034,7 +13034,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ORD_0000133</t>
+          <t>ORD_0005342</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -13109,7 +13109,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ORD_0000134</t>
+          <t>ORD_0005343</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -13180,7 +13180,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ORD_0000135</t>
+          <t>ORD_0005344</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -13251,7 +13251,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ORD_0000135</t>
+          <t>ORD_0005344</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -13322,7 +13322,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ORD_0000136</t>
+          <t>ORD_0005345</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -13393,7 +13393,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ORD_0000137</t>
+          <t>ORD_0005346</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -13468,7 +13468,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ORD_0000137</t>
+          <t>ORD_0005346</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -13543,7 +13543,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ORD_0000137</t>
+          <t>ORD_0005346</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -13618,7 +13618,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ORD_0000137</t>
+          <t>ORD_0005346</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -13693,7 +13693,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ORD_0000138</t>
+          <t>ORD_0005347</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -13764,7 +13764,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ORD_0000138</t>
+          <t>ORD_0005347</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -13835,7 +13835,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ORD_0000138</t>
+          <t>ORD_0005347</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -13906,7 +13906,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ORD_0000138</t>
+          <t>ORD_0005347</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -13977,7 +13977,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ORD_0000139</t>
+          <t>ORD_0005348</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -14052,7 +14052,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ORD_0000140</t>
+          <t>ORD_0005349</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -14123,7 +14123,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ORD_0000140</t>
+          <t>ORD_0005349</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -14194,7 +14194,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ORD_0000141</t>
+          <t>ORD_0005350</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -14265,7 +14265,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ORD_0000142</t>
+          <t>ORD_0005351</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -14336,7 +14336,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ORD_0000143</t>
+          <t>ORD_0005352</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -14407,7 +14407,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ORD_0000144</t>
+          <t>ORD_0005353</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -14478,7 +14478,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ORD_0000145</t>
+          <t>ORD_0005354</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -14549,7 +14549,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ORD_0000146</t>
+          <t>ORD_0005355</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -14624,7 +14624,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ORD_0000146</t>
+          <t>ORD_0005355</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -14699,7 +14699,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ORD_0000146</t>
+          <t>ORD_0005355</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -14774,7 +14774,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ORD_0000147</t>
+          <t>ORD_0005356</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -14845,7 +14845,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ORD_0000148</t>
+          <t>ORD_0005357</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -14916,7 +14916,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ORD_0000149</t>
+          <t>ORD_0005358</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -14987,7 +14987,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ORD_0000149</t>
+          <t>ORD_0005358</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -15058,7 +15058,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ORD_0000150</t>
+          <t>ORD_0005359</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -15129,7 +15129,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ORD_0000150</t>
+          <t>ORD_0005359</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -15200,7 +15200,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ORD_0000151</t>
+          <t>ORD_0005360</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -15271,7 +15271,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ORD_0000152</t>
+          <t>ORD_0005361</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -15342,7 +15342,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ORD_0000153</t>
+          <t>ORD_0005362</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -15413,7 +15413,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ORD_0000154</t>
+          <t>ORD_0005363</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -15484,7 +15484,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ORD_0000154</t>
+          <t>ORD_0005363</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -15555,7 +15555,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ORD_0000155</t>
+          <t>ORD_0005364</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -15630,7 +15630,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ORD_0000156</t>
+          <t>ORD_0005365</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -15701,7 +15701,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ORD_0000157</t>
+          <t>ORD_0005366</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -15772,7 +15772,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ORD_0000158</t>
+          <t>ORD_0005367</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -15843,7 +15843,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ORD_0000159</t>
+          <t>ORD_0005368</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -15914,7 +15914,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ORD_0000160</t>
+          <t>ORD_0005369</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -15989,7 +15989,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ORD_0000161</t>
+          <t>ORD_0005370</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -16060,7 +16060,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ORD_0000162</t>
+          <t>ORD_0005371</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -16131,7 +16131,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ORD_0000163</t>
+          <t>ORD_0005372</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -16206,7 +16206,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ORD_0000164</t>
+          <t>ORD_0005373</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -16277,7 +16277,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ORD_0000165</t>
+          <t>ORD_0005374</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -16348,7 +16348,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ORD_0000166</t>
+          <t>ORD_0005375</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -16419,7 +16419,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ORD_0000167</t>
+          <t>ORD_0005376</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -16494,7 +16494,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ORD_0000168</t>
+          <t>ORD_0005377</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -16569,7 +16569,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ORD_0000169</t>
+          <t>ORD_0005378</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -16640,7 +16640,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ORD_0000169</t>
+          <t>ORD_0005378</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -16711,7 +16711,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ORD_0000170</t>
+          <t>ORD_0005379</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -16782,7 +16782,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ORD_0000171</t>
+          <t>ORD_0005380</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -16853,7 +16853,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ORD_0000172</t>
+          <t>ORD_0005381</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -16924,7 +16924,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ORD_0000173</t>
+          <t>ORD_0005382</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -16995,7 +16995,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ORD_0000174</t>
+          <t>ORD_0005383</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -17066,7 +17066,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ORD_0000175</t>
+          <t>ORD_0005384</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -17141,7 +17141,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ORD_0000176</t>
+          <t>ORD_0005385</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -17212,7 +17212,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ORD_0000177</t>
+          <t>ORD_0005386</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -17283,7 +17283,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ORD_0000178</t>
+          <t>ORD_0005387</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -17358,7 +17358,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ORD_0000179</t>
+          <t>ORD_0005388</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -17429,7 +17429,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ORD_0000180</t>
+          <t>ORD_0005389</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -17500,7 +17500,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ORD_0000180</t>
+          <t>ORD_0005389</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -17571,7 +17571,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ORD_0000181</t>
+          <t>ORD_0005390</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -17642,7 +17642,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ORD_0000182</t>
+          <t>ORD_0005391</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -17713,7 +17713,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ORD_0000183</t>
+          <t>ORD_0005392</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -17784,7 +17784,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ORD_0000184</t>
+          <t>ORD_0005393</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -17859,7 +17859,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ORD_0000185</t>
+          <t>ORD_0005394</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -17930,7 +17930,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ORD_0000186</t>
+          <t>ORD_0005395</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -18001,7 +18001,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ORD_0000187</t>
+          <t>ORD_0005396</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -18076,7 +18076,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ORD_0000188</t>
+          <t>ORD_0005397</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -18147,7 +18147,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ORD_0000188</t>
+          <t>ORD_0005397</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -18218,7 +18218,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ORD_0000189</t>
+          <t>ORD_0005398</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -18289,7 +18289,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ORD_0000190</t>
+          <t>ORD_0005399</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -18364,7 +18364,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ORD_0000191</t>
+          <t>ORD_0005400</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -18435,7 +18435,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ORD_0000192</t>
+          <t>ORD_0005401</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -18506,7 +18506,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ORD_0000193</t>
+          <t>ORD_0005402</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -18577,7 +18577,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ORD_0000194</t>
+          <t>ORD_0005403</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -18648,7 +18648,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ORD_0000194</t>
+          <t>ORD_0005403</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -18719,7 +18719,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ORD_0000195</t>
+          <t>ORD_0005404</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -18790,7 +18790,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ORD_0000196</t>
+          <t>ORD_0005405</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -18865,7 +18865,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ORD_0000197</t>
+          <t>ORD_0005406</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -18936,7 +18936,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ORD_0000198</t>
+          <t>ORD_0005407</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -19007,7 +19007,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ORD_0000199</t>
+          <t>ORD_0005408</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -19078,7 +19078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ORD_0000200</t>
+          <t>ORD_0005409</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -19149,7 +19149,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ORD_0000201</t>
+          <t>ORD_0005410</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -19220,7 +19220,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ORD_0000202</t>
+          <t>ORD_0005411</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -19291,7 +19291,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ORD_0000203</t>
+          <t>ORD_0005412</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -19362,7 +19362,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ORD_0000204</t>
+          <t>ORD_0005413</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -19433,7 +19433,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ORD_0000205</t>
+          <t>ORD_0005414</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -19508,7 +19508,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>ORD_0000206</t>
+          <t>ORD_0005415</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -19579,7 +19579,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>ORD_0000207</t>
+          <t>ORD_0005416</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -19650,7 +19650,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>ORD_0000208</t>
+          <t>ORD_0005417</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -19721,7 +19721,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>ORD_0000209</t>
+          <t>ORD_0005418</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -19792,7 +19792,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ORD_0000210</t>
+          <t>ORD_0005419</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -19863,7 +19863,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>ORD_0000211</t>
+          <t>ORD_0005420</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -19934,7 +19934,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ORD_0000211</t>
+          <t>ORD_0005420</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -20005,7 +20005,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ORD_0000212</t>
+          <t>ORD_0005421</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -20076,7 +20076,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>ORD_0000212</t>
+          <t>ORD_0005421</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -20147,7 +20147,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ORD_0000213</t>
+          <t>ORD_0005422</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -20222,7 +20222,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>ORD_0000214</t>
+          <t>ORD_0005423</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -20297,7 +20297,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ORD_0000215</t>
+          <t>ORD_0005424</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -20368,7 +20368,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ORD_0000216</t>
+          <t>ORD_0005425</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -20439,7 +20439,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ORD_0000217</t>
+          <t>ORD_0005426</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -20514,7 +20514,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>ORD_0000217</t>
+          <t>ORD_0005426</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -20589,7 +20589,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ORD_0000218</t>
+          <t>ORD_0005427</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -20660,7 +20660,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>ORD_0000219</t>
+          <t>ORD_0005428</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -20731,7 +20731,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>ORD_0000220</t>
+          <t>ORD_0005429</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -20802,7 +20802,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ORD_0000220</t>
+          <t>ORD_0005429</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -20873,7 +20873,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>ORD_0000221</t>
+          <t>ORD_0005430</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -20944,7 +20944,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>ORD_0000222</t>
+          <t>ORD_0005431</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -21019,7 +21019,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ORD_0000223</t>
+          <t>ORD_0005432</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -21090,7 +21090,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>ORD_0000224</t>
+          <t>ORD_0005433</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -21161,7 +21161,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ORD_0000225</t>
+          <t>ORD_0005434</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -21232,7 +21232,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>ORD_0000226</t>
+          <t>ORD_0005435</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -21303,7 +21303,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ORD_0000227</t>
+          <t>ORD_0005436</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -21374,7 +21374,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>ORD_0000228</t>
+          <t>ORD_0005437</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -21449,7 +21449,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>ORD_0000229</t>
+          <t>ORD_0005438</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -21520,7 +21520,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>ORD_0000230</t>
+          <t>ORD_0005439</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -21595,7 +21595,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ORD_0000231</t>
+          <t>ORD_0005440</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -21666,7 +21666,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>ORD_0000232</t>
+          <t>ORD_0005441</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -21737,7 +21737,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ORD_0000233</t>
+          <t>ORD_0005442</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -21808,7 +21808,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>ORD_0000234</t>
+          <t>ORD_0005443</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -21879,7 +21879,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ORD_0000235</t>
+          <t>ORD_0005444</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -21950,7 +21950,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>ORD_0000236</t>
+          <t>ORD_0005445</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -22021,7 +22021,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ORD_0000236</t>
+          <t>ORD_0005445</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -22092,7 +22092,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ORD_0000236</t>
+          <t>ORD_0005445</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -22163,7 +22163,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ORD_0000236</t>
+          <t>ORD_0005445</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -22234,7 +22234,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ORD_0000236</t>
+          <t>ORD_0005445</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -22305,7 +22305,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ORD_0000236</t>
+          <t>ORD_0005445</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -22376,7 +22376,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ORD_0000236</t>
+          <t>ORD_0005445</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -22447,7 +22447,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>ORD_0000236</t>
+          <t>ORD_0005445</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -22518,7 +22518,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ORD_0000237</t>
+          <t>ORD_0005446</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -22589,7 +22589,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ORD_0000238</t>
+          <t>ORD_0005447</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -22660,7 +22660,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>ORD_0000239</t>
+          <t>ORD_0005448</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -22731,7 +22731,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>ORD_0000239</t>
+          <t>ORD_0005448</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -22802,7 +22802,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ORD_0000240</t>
+          <t>ORD_0005449</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -22873,7 +22873,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>ORD_0000240</t>
+          <t>ORD_0005449</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -22944,7 +22944,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>ORD_0000240</t>
+          <t>ORD_0005449</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -23015,7 +23015,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>ORD_0000240</t>
+          <t>ORD_0005449</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -23086,7 +23086,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>ORD_0000241</t>
+          <t>ORD_0005450</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -23157,7 +23157,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ORD_0000241</t>
+          <t>ORD_0005450</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -23228,7 +23228,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ORD_0000242</t>
+          <t>ORD_0005451</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -23299,7 +23299,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ORD_0000243</t>
+          <t>ORD_0005452</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -23370,7 +23370,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>ORD_0000244</t>
+          <t>ORD_0005453</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -23441,7 +23441,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ORD_0000245</t>
+          <t>ORD_0005454</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -23512,7 +23512,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>ORD_0000246</t>
+          <t>ORD_0005455</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -23583,7 +23583,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ORD_0000247</t>
+          <t>ORD_0005456</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -23654,7 +23654,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ORD_0000248</t>
+          <t>ORD_0005457</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -23729,7 +23729,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>ORD_0000249</t>
+          <t>ORD_0005458</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -23800,7 +23800,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ORD_0000250</t>
+          <t>ORD_0005459</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -23875,7 +23875,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>ORD_0000251</t>
+          <t>ORD_0005460</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -23950,7 +23950,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ORD_0000252</t>
+          <t>ORD_0005461</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -24021,7 +24021,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ORD_0000253</t>
+          <t>ORD_0005462</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -24092,7 +24092,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>ORD_0000253</t>
+          <t>ORD_0005462</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -24163,7 +24163,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ORD_0000254</t>
+          <t>ORD_0005463</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -24234,7 +24234,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ORD_0000255</t>
+          <t>ORD_0005464</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -24305,7 +24305,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ORD_0000255</t>
+          <t>ORD_0005464</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -24376,7 +24376,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ORD_0000256</t>
+          <t>ORD_0005465</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -24447,7 +24447,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>ORD_0000257</t>
+          <t>ORD_0005466</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -24518,7 +24518,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ORD_0000258</t>
+          <t>ORD_0005467</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -24589,7 +24589,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>ORD_0000259</t>
+          <t>ORD_0005468</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -24660,7 +24660,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>ORD_0000260</t>
+          <t>ORD_0005469</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -24731,7 +24731,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>ORD_0000261</t>
+          <t>ORD_0005470</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -24802,7 +24802,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ORD_0000261</t>
+          <t>ORD_0005470</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -24873,7 +24873,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>ORD_0000262</t>
+          <t>ORD_0005471</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -24944,7 +24944,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>ORD_0000263</t>
+          <t>ORD_0005472</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -25019,7 +25019,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ORD_0000264</t>
+          <t>ORD_0005473</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -25090,7 +25090,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ORD_0000265</t>
+          <t>ORD_0005474</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -25161,7 +25161,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ORD_0000266</t>
+          <t>ORD_0005475</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -25232,7 +25232,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ORD_0000267</t>
+          <t>ORD_0005476</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -25307,7 +25307,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ORD_0000268</t>
+          <t>ORD_0005477</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -25378,7 +25378,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ORD_0000269</t>
+          <t>ORD_0005478</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -25449,7 +25449,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ORD_0000269</t>
+          <t>ORD_0005478</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -25520,7 +25520,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ORD_0000269</t>
+          <t>ORD_0005478</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -25591,7 +25591,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ORD_0000270</t>
+          <t>ORD_0005479</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -25662,7 +25662,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>ORD_0000271</t>
+          <t>ORD_0005480</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -25733,7 +25733,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>ORD_0000271</t>
+          <t>ORD_0005480</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -25804,7 +25804,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>ORD_0000272</t>
+          <t>ORD_0005481</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -25875,7 +25875,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>ORD_0000273</t>
+          <t>ORD_0005482</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -25946,7 +25946,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ORD_0000274</t>
+          <t>ORD_0005483</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -26017,7 +26017,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ORD_0000275</t>
+          <t>ORD_0005484</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -26092,7 +26092,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ORD_0000276</t>
+          <t>ORD_0005485</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -26163,7 +26163,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>ORD_0000277</t>
+          <t>ORD_0005486</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -26234,7 +26234,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>ORD_0000277</t>
+          <t>ORD_0005486</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -26305,7 +26305,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ORD_0000278</t>
+          <t>ORD_0005487</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -26376,7 +26376,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>ORD_0000278</t>
+          <t>ORD_0005487</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -26447,7 +26447,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>ORD_0000278</t>
+          <t>ORD_0005487</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -26518,7 +26518,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>ORD_0000279</t>
+          <t>ORD_0005488</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -26589,7 +26589,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>ORD_0000279</t>
+          <t>ORD_0005488</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -26660,7 +26660,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>ORD_0000280</t>
+          <t>ORD_0005489</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -26731,7 +26731,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>ORD_0000281</t>
+          <t>ORD_0005490</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -26802,7 +26802,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ORD_0000282</t>
+          <t>ORD_0005491</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -26873,7 +26873,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ORD_0000283</t>
+          <t>ORD_0005492</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -26944,7 +26944,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>ORD_0000284</t>
+          <t>ORD_0005493</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -27015,7 +27015,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>ORD_0000285</t>
+          <t>ORD_0005494</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -27086,7 +27086,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ORD_0000286</t>
+          <t>ORD_0005495</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -27157,7 +27157,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>ORD_0000287</t>
+          <t>ORD_0005496</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -27228,7 +27228,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>ORD_0000287</t>
+          <t>ORD_0005496</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -27299,7 +27299,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ORD_0000287</t>
+          <t>ORD_0005496</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -27370,7 +27370,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ORD_0000287</t>
+          <t>ORD_0005496</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -27441,7 +27441,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>ORD_0000288</t>
+          <t>ORD_0005497</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -27512,7 +27512,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>ORD_0000289</t>
+          <t>ORD_0005498</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -27583,7 +27583,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>ORD_0000290</t>
+          <t>ORD_0005499</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -27654,7 +27654,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>ORD_0000291</t>
+          <t>ORD_0005500</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -27725,7 +27725,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>ORD_0000291</t>
+          <t>ORD_0005500</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -27796,7 +27796,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ORD_0000292</t>
+          <t>ORD_0005501</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -27867,7 +27867,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>ORD_0000292</t>
+          <t>ORD_0005501</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -27938,7 +27938,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>ORD_0000292</t>
+          <t>ORD_0005501</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -28009,7 +28009,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>ORD_0000293</t>
+          <t>ORD_0005502</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -28080,7 +28080,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>ORD_0000294</t>
+          <t>ORD_0005503</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -28151,7 +28151,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>ORD_0000295</t>
+          <t>ORD_0005504</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -28222,7 +28222,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>ORD_0000296</t>
+          <t>ORD_0005505</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -28293,7 +28293,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>ORD_0000297</t>
+          <t>ORD_0005506</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -28364,7 +28364,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>ORD_0000298</t>
+          <t>ORD_0005507</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -28435,7 +28435,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>ORD_0000299</t>
+          <t>ORD_0005508</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -28506,7 +28506,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>ORD_0000300</t>
+          <t>ORD_0005509</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -28577,7 +28577,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>ORD_0000301</t>
+          <t>ORD_0005510</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -28652,7 +28652,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>ORD_0000302</t>
+          <t>ORD_0005511</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -28727,7 +28727,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>ORD_0000303</t>
+          <t>ORD_0005512</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -28798,7 +28798,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>ORD_0000303</t>
+          <t>ORD_0005512</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -28869,7 +28869,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>ORD_0000304</t>
+          <t>ORD_0005513</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -28940,7 +28940,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>ORD_0000304</t>
+          <t>ORD_0005513</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -29011,7 +29011,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>ORD_0000305</t>
+          <t>ORD_0005514</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -29082,7 +29082,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>ORD_0000306</t>
+          <t>ORD_0005515</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -29153,7 +29153,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>ORD_0000307</t>
+          <t>ORD_0005516</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -29224,7 +29224,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>ORD_0000308</t>
+          <t>ORD_0005517</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -29295,7 +29295,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>ORD_0000309</t>
+          <t>ORD_0005518</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -29366,7 +29366,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>ORD_0000310</t>
+          <t>ORD_0005519</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -29437,7 +29437,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>ORD_0000311</t>
+          <t>ORD_0005520</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -29508,7 +29508,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>ORD_0000312</t>
+          <t>ORD_0005521</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -29579,7 +29579,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>ORD_0000313</t>
+          <t>ORD_0005522</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -29650,7 +29650,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>ORD_0000313</t>
+          <t>ORD_0005522</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -29721,7 +29721,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>ORD_0000313</t>
+          <t>ORD_0005522</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -29792,7 +29792,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>ORD_0000313</t>
+          <t>ORD_0005522</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -29863,7 +29863,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>ORD_0000313</t>
+          <t>ORD_0005522</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -29934,7 +29934,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>ORD_0000313</t>
+          <t>ORD_0005522</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -30005,7 +30005,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>ORD_0000313</t>
+          <t>ORD_0005522</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -30076,7 +30076,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>ORD_0000313</t>
+          <t>ORD_0005522</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -30147,7 +30147,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>ORD_0000314</t>
+          <t>ORD_0005523</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -30218,7 +30218,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>ORD_0000315</t>
+          <t>ORD_0005524</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -30289,7 +30289,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>ORD_0000316</t>
+          <t>ORD_0005525</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -30360,7 +30360,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>ORD_0000317</t>
+          <t>ORD_0005526</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -30431,7 +30431,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>ORD_0000318</t>
+          <t>ORD_0005527</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -30502,7 +30502,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>ORD_0000319</t>
+          <t>ORD_0005528</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -30573,7 +30573,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>ORD_0000320</t>
+          <t>ORD_0005529</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -30644,7 +30644,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>ORD_0000321</t>
+          <t>ORD_0005530</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -30715,7 +30715,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>ORD_0000322</t>
+          <t>ORD_0005531</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -30786,7 +30786,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>ORD_0000323</t>
+          <t>ORD_0005532</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -30857,7 +30857,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>ORD_0000323</t>
+          <t>ORD_0005532</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -30928,7 +30928,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>ORD_0000324</t>
+          <t>ORD_0005533</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -30999,7 +30999,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>ORD_0000325</t>
+          <t>ORD_0005534</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -31074,7 +31074,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>ORD_0000326</t>
+          <t>ORD_0005535</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -31145,7 +31145,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>ORD_0000327</t>
+          <t>ORD_0005536</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -31216,7 +31216,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>ORD_0000328</t>
+          <t>ORD_0005537</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -31287,7 +31287,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>ORD_0000329</t>
+          <t>ORD_0005538</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -31358,7 +31358,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>ORD_0000330</t>
+          <t>ORD_0005539</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -31429,7 +31429,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>ORD_0000330</t>
+          <t>ORD_0005539</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -31500,7 +31500,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>ORD_0000330</t>
+          <t>ORD_0005539</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -31571,7 +31571,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>ORD_0000330</t>
+          <t>ORD_0005539</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -31642,7 +31642,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>ORD_0000330</t>
+          <t>ORD_0005539</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -31713,7 +31713,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>ORD_0000331</t>
+          <t>ORD_0005540</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -31784,7 +31784,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>ORD_0000331</t>
+          <t>ORD_0005540</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -31855,7 +31855,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>ORD_0000331</t>
+          <t>ORD_0005540</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -31926,7 +31926,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>ORD_0000332</t>
+          <t>ORD_0005541</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -31997,7 +31997,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>ORD_0000332</t>
+          <t>ORD_0005541</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -32068,7 +32068,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>ORD_0000333</t>
+          <t>ORD_0005542</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -32139,7 +32139,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>ORD_0000334</t>
+          <t>ORD_0005543</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -32210,7 +32210,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>ORD_0000335</t>
+          <t>ORD_0005544</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -32281,7 +32281,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>ORD_0000336</t>
+          <t>ORD_0005545</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -32356,7 +32356,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>ORD_0000337</t>
+          <t>ORD_0005546</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -32427,7 +32427,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>ORD_0000338</t>
+          <t>ORD_0005547</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -32498,7 +32498,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>ORD_0000339</t>
+          <t>ORD_0005548</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -32569,7 +32569,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>ORD_0000340</t>
+          <t>ORD_0005549</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -32640,7 +32640,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>ORD_0000341</t>
+          <t>ORD_0005550</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -32711,7 +32711,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>ORD_0000341</t>
+          <t>ORD_0005550</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -32782,7 +32782,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>ORD_0000342</t>
+          <t>ORD_0005551</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -32853,7 +32853,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>ORD_0000343</t>
+          <t>ORD_0005552</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -32924,7 +32924,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>ORD_0000343</t>
+          <t>ORD_0005552</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -32995,7 +32995,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>ORD_0000344</t>
+          <t>ORD_0005553</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -33066,7 +33066,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>ORD_0000345</t>
+          <t>ORD_0005554</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -33137,7 +33137,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>ORD_0000346</t>
+          <t>ORD_0005555</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -33212,7 +33212,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>ORD_0000347</t>
+          <t>ORD_0005556</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -33287,7 +33287,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>ORD_0000348</t>
+          <t>ORD_0005557</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -33358,7 +33358,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>ORD_0000349</t>
+          <t>ORD_0005558</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -33429,7 +33429,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>ORD_0000350</t>
+          <t>ORD_0005559</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -33500,7 +33500,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>ORD_0000350</t>
+          <t>ORD_0005559</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -33571,7 +33571,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>ORD_0000351</t>
+          <t>ORD_0005560</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -33642,7 +33642,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>ORD_0000352</t>
+          <t>ORD_0005561</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -33713,7 +33713,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>ORD_0000353</t>
+          <t>ORD_0005562</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -33784,7 +33784,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>ORD_0000354</t>
+          <t>ORD_0005563</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -33855,7 +33855,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>ORD_0000355</t>
+          <t>ORD_0005564</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -33930,7 +33930,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>ORD_0000355</t>
+          <t>ORD_0005564</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -34005,7 +34005,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>ORD_0000356</t>
+          <t>ORD_0005565</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -34080,7 +34080,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>ORD_0000356</t>
+          <t>ORD_0005565</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -34155,7 +34155,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>ORD_0000357</t>
+          <t>ORD_0005566</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -34226,7 +34226,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>ORD_0000358</t>
+          <t>ORD_0005567</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -34297,7 +34297,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>ORD_0000358</t>
+          <t>ORD_0005567</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -34368,7 +34368,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>ORD_0000359</t>
+          <t>ORD_0005568</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -34439,7 +34439,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>ORD_0000360</t>
+          <t>ORD_0005569</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -34510,7 +34510,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>ORD_0000361</t>
+          <t>ORD_0005570</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -34585,7 +34585,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>ORD_0000362</t>
+          <t>ORD_0005571</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -34656,7 +34656,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>ORD_0000363</t>
+          <t>ORD_0005572</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -34727,7 +34727,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>ORD_0000364</t>
+          <t>ORD_0005573</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -34802,7 +34802,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>ORD_0000364</t>
+          <t>ORD_0005573</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -34877,7 +34877,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>ORD_0000365</t>
+          <t>ORD_0005574</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -34948,7 +34948,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>ORD_0000365</t>
+          <t>ORD_0005574</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -35019,7 +35019,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>ORD_0000366</t>
+          <t>ORD_0005575</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -35094,7 +35094,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>ORD_0000366</t>
+          <t>ORD_0005575</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -35169,7 +35169,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>ORD_0000366</t>
+          <t>ORD_0005575</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -35244,7 +35244,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>ORD_0000367</t>
+          <t>ORD_0005576</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -35315,7 +35315,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>ORD_0000368</t>
+          <t>ORD_0005577</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -35386,7 +35386,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>ORD_0000369</t>
+          <t>ORD_0005578</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -35457,7 +35457,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>ORD_0000370</t>
+          <t>ORD_0005579</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -35532,7 +35532,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>ORD_0000371</t>
+          <t>ORD_0005580</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -35603,7 +35603,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>ORD_0000372</t>
+          <t>ORD_0005581</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -35674,7 +35674,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>ORD_0000372</t>
+          <t>ORD_0005581</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -35745,7 +35745,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>ORD_0000373</t>
+          <t>ORD_0005582</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -35816,7 +35816,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>ORD_0000374</t>
+          <t>ORD_0005583</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -35891,7 +35891,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>ORD_0000375</t>
+          <t>ORD_0005584</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -35962,7 +35962,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>ORD_0000375</t>
+          <t>ORD_0005584</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -36033,7 +36033,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>ORD_0000376</t>
+          <t>ORD_0005585</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -36104,7 +36104,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>ORD_0000377</t>
+          <t>ORD_0005586</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -36175,7 +36175,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>ORD_0000378</t>
+          <t>ORD_0005587</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -36246,7 +36246,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>ORD_0000379</t>
+          <t>ORD_0005588</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -36317,7 +36317,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>ORD_0000380</t>
+          <t>ORD_0005589</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -36388,7 +36388,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>ORD_0000380</t>
+          <t>ORD_0005589</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -36459,7 +36459,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>ORD_0000381</t>
+          <t>ORD_0005590</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -36534,7 +36534,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>ORD_0000381</t>
+          <t>ORD_0005590</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -36609,7 +36609,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>ORD_0000382</t>
+          <t>ORD_0005591</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -36680,7 +36680,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>ORD_0000382</t>
+          <t>ORD_0005591</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -36751,7 +36751,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>ORD_0000383</t>
+          <t>ORD_0005592</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -36822,7 +36822,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>ORD_0000384</t>
+          <t>ORD_0005593</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -36893,7 +36893,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>ORD_0000385</t>
+          <t>ORD_0005594</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -36968,7 +36968,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>ORD_0000386</t>
+          <t>ORD_0005595</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -37039,7 +37039,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>ORD_0000387</t>
+          <t>ORD_0005596</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -37114,7 +37114,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>ORD_0000388</t>
+          <t>ORD_0005597</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -37185,7 +37185,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>ORD_0000389</t>
+          <t>ORD_0005598</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
